--- a/Data/Transitions/19471963Translation.xlsx
+++ b/Data/Transitions/19471963Translation.xlsx
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019479775409648218}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019479775409648218}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8927088692332578}</t>
+    <t>{49.0: 0.8862224855942327}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837, 271.0: 0.0016780179646629157}</t>
+    <t>{79.0: 0.9993761696818465, 271.0: 0.0016780179646629157}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -196,7 +196,7 @@
     <t>{91.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 1.0, 858.0: 0.11121885973409691}</t>
+    <t>{92.0: 1.0, 858.0: 0.10371055410031664}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9760645363772565}</t>
+    <t>{97.0: 0.9760863386099149}</t>
   </si>
   <si>
     <t>{98.0: 0.801192063367579}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.5983649330318316}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.40163506696816836, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -256,13 +256,13 @@
     <t>{142.0: 0.9962324013484037}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9991255978449678, 743.0: 0.0029220468706393416, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.031323247389729386, 152.0: 0.0003661755205328425}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9991255978449678, 743.0: 0.0029298788622231006, 544.0: 2.5343881103012855e-06, 975.0: 0.0051123267978852175, 942.0: 0.031323247389729386, 152.0: 0.0003661755205328425}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -328,7 +328,7 @@
     <t>{177.0: 1.0, 562.0: 0.0005025757004648825}</t>
   </si>
   <si>
-    <t>{178.0: 0.9847554038680318, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
+    <t>{178.0: 0.9847554038680318, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
   </si>
   <si>
     <t>{179.0: 1.0, 180.0: 0.011662928548542133}</t>
@@ -349,16 +349,16 @@
     <t>{184.0: 0.9938086184968266, 778.0: 0.0034971470642370696, 420.0: 5.360433881417949e-06}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
   </si>
   <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10729113076674225}</t>
+    <t>{49.0: 0.11377751440576732}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,7 +457,7 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -478,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.262525543590365}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9980520224590351, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -502,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -526,7 +526,7 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 1.0, 79.0: 0.0006519967400162999}</t>
+    <t>{262.0: 1.0, 79.0: 0.0006238303181534623}</t>
   </si>
   <si>
     <t>{263.0: 0.9979662270430174}</t>
@@ -535,7 +535,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.0657712818487063}</t>
+    <t>{400.0: 0.061638130495141136}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
@@ -583,7 +583,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.05257719916943447, 306.0: 0.00631396710626814, 908.0: 0.04976895689720476, 788.0: 0.0027733768944140946}</t>
@@ -649,7 +649,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{312.0: 1.0, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688, 226.0: 0.0002714072465734835}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -679,7 +679,7 @@
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.9342287181512937}</t>
+    <t>{400.0: 0.9383618695048589}</t>
   </si>
   <si>
     <t>{401.0: 1.0, 16.0: 0.005869490159972379}</t>
@@ -691,7 +691,7 @@
     <t>{403.0: 0.9933104321099259}</t>
   </si>
   <si>
-    <t>{404.0: 0.3609253569492138}</t>
+    <t>{404.0: 0.5163452332102312}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -712,7 +712,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -742,7 +742,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 0.998298837538985}</t>
@@ -757,10 +757,10 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.26721824686940965, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7327817531305904}</t>
+    <t>{428.0: 0.21205489175440673, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7879451082455933}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023935463622743416}</t>
+    <t>{492.0: 0.995625, 85.0: 0.0014297385620915032, 178.0: 0.015244596131968146, 97.0: 0.023913661390085057}</t>
   </si>
   <si>
     <t>{493.0: 0.9993252361673415}</t>
@@ -895,10 +895,10 @@
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.016173856462781022, 680.0: 0.0007046030419586122, 481.0: 1.3057803072405517e-05}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.983826143537219}</t>
+    <t>{529.0: 1.0, 530.0: 0.016548865747358192, 680.0: 0.0007046030419586122, 481.0: 1.3057803072405517e-05}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9834511342526419}</t>
   </si>
   <si>
     <t>{531.0: 0.9893040072310937}</t>
@@ -919,7 +919,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -931,10 +931,10 @@
     <t>{540.0: 1.0}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -970,7 +970,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -988,7 +988,7 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
+    <t>{573.0: 0.5470310513891411}</t>
   </si>
   <si>
     <t>{580.0: 1.0, 728.0: 0.002418704649287826}</t>
@@ -1000,7 +1000,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.45294474802671525}</t>
+    <t>{583.0: 0.5739952718676123}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1018,7 +1018,7 @@
     <t>{588.0: 1.0}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.013299521821319988, 10.0: 0.006268500783562598}</t>
+    <t>{589.0: 1.0, 145.0: 0.000656024491581019, 743.0: 0.010654858616757608, 10.0: 0.006268500783562598}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1027,16 +1027,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
+    <t>{593.0: 0.49682353666810586}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 85.0: 0.005416860752281957, 492.0: 1.8647119341563785e-05}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1069,7 +1069,7 @@
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 610.0: 0.0008002743797873557}</t>
@@ -1126,7 +1126,7 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
+    <t>{627.0: 0.432346990389479}</t>
   </si>
   <si>
     <t>{629.0: 1.0}</t>
@@ -1156,13 +1156,13 @@
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9963087013294778, 481.0: 0.018463733544381404}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820654782199828, 171.0: 0.004749218116529595, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06, 212.0: 0.007655502392344498}</t>
+    <t>{681.0: 0.9819800735702071, 171.0: 0.004749218116529595, 90.0: 0.0007064997981429148, 420.0: 1.2245688894066165e-06, 212.0: 0.007655502392344498}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
@@ -1210,10 +1210,10 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.2012909422220707}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7987090577779293}</t>
+    <t>{698.0: 0.43055025898790067}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5694497410120993}</t>
   </si>
   <si>
     <t>{700.0: 0.305947407722146}</t>
@@ -1267,13 +1267,13 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.5470552519732848}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.4260047281323877}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.0002183776634512975, 544.0: 0.0008532636435542259, 975.0: 6.058676758964917e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1372,7 +1372,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9968371837183718, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9968371837183718, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892}</t>
+    <t>{848.0: 0.9228851136919364}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.06410669123707292}</t>
+    <t>{858.0: 0.308581204304183}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,7 +1474,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6808248608561583, 619.0: 0.0001431947985895543}</t>
+    <t>{861.0: 0.6849891000612596, 619.0: 0.0001431947985895543}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1531,10 +1531,10 @@
     <t>{909.0: 0.9474228008305655}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.3191751391438416}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.3150108999387404}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0018182412250789639}</t>
+    <t>{940.0: 1.0, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 785.0: 0.0031628162816281628, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1615,7 +1615,7 @@
     <t>{942.0: 0.9686767526102706}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
@@ -1660,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.5758266818700114}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.4241733181299886}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.6615788941675933}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.33842110583240675}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493102, 886.0: 0.006416426050689767}</t>
@@ -1804,7 +1804,7 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011392765593847907}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
   </si>
   <si>
     <t>{179.0: 0.9929281939695369, 180.0: 0.007071806030463163}</t>
@@ -1852,7 +1852,7 @@
     <t>{238.0: 0.9953091684434969, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1882,7 +1882,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328585, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.990102929532858, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937941, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -2191,7 +2191,7 @@
     <t>{781.0: 0.999277531220972, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{787.0: 0.9945477870429763, 500.0: 0.005448831739686044, 277.0: 3.381217337689137e-06}</t>
@@ -2212,7 +2212,7 @@
     <t>{835.0: 0.9949484319090721, 756.0: 0.005051568090928225}</t>
   </si>
   <si>
-    <t>{837.0: 0.980948569915818, 980.0: 0.01905143008418187}</t>
+    <t>{837.0: 0.9809485699158184, 980.0: 0.01905143008418187}</t>
   </si>
   <si>
     <t>{838.0: 0.9948208890807074, 423.0: 0.005179110919292188}</t>
@@ -2299,13 +2299,13 @@
     <t>{934.0: 0.9935019726154561, 5.0: 0.006498027384543977}</t>
   </si>
   <si>
-    <t>{940.0: 0.9932928107315029, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0038339060643699974, 889.0: 0.0009868862223623436}</t>
+    <t>{940.0: 0.9932928107315029, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 785.0: 0.0033035414140719214, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249448, 848.0: 0.19997772797505534}</t>
+    <t>{943.0: 0.7700641420657479, 848.0: 0.22993585793425228}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
